--- a/data/trans_camb/P10_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -657,12 +657,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,07</t>
+          <t>-5,31; 3,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,71</t>
+          <t>-3,12; 2,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,61</t>
+          <t>-2,89; 2,81</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>-2,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-1,29%</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 14,58</t>
+          <t>-14,48; 20,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 5,69</t>
+          <t>-8,14; 7,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 8,02</t>
+          <t>-9,51; 12,81</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-79,44; 302,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-79,51; 313,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 194,19</t>
+          <t>-85,15; 353,45</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 10,53</t>
+          <t>-7,23; 9,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 11,54</t>
+          <t>-17,28; 16,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 8,26</t>
+          <t>-9,91; 11,46</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-64,94; 166,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 74,16</t>
+          <t>-66,12; 165,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,34; 66,24</t>
+          <t>-57,6; 165,32</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,89</t>
+          <t>-3,25; 4,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,29</t>
+          <t>-2,37; 3,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,58</t>
+          <t>-1,89; 2,89</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>5,96%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 115,84</t>
+          <t>-75,58; 287,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 70,41</t>
+          <t>-58,13; 204,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 52,26</t>
+          <t>-49,55; 129,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,151 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +715,169 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 3,98</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 2,0</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 2,81</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,72%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,56%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,29%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-14,48; 20,91</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 7,88</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-9,51; 12,81</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>13,82%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,47%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.08953125090076022</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1172530182772483</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1114424531380928</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-85,15; 353,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.334338744707724</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.130930186637673</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.929170257313463</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.070543329118978</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.826877032983345</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.535126507469241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 9,86</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-17,28; 16,92</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; 11,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.03432482033435903</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1140911547465307</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.06346025029938741</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>3,61%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,57%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-66,12; 165,15</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-57,6; 165,32</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +885,303 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>2.795719403336919</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0.1577989504653786</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1.696326921537882</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 4,31</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 3,25</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 2,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-13.83264780823514</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-7.70870520438992</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-8.809357683176806</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>5,96%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>23.21222504738689</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>8.775706654412669</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>14.20345849137937</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-75,58; 287,91</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-58,13; 204,86</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-49,55; 129,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.2654819572395817</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.03879047305798572</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.2182765015736042</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
+      <c r="E32" s="6" t="n">
+        <v>-0.8037272113595441</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="n">
+        <v>3.834209159791399</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-0.2277570476549147</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.2894995419259389</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-0.1027095524824384</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-9.562059862906601</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-17.29252071377179</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-10.46638940586797</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>7.150793086156898</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>17.25982852117422</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>10.92924073306323</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.04864826314621775</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.01493092901249236</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.008112147602533112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="n">
+        <v>-0.640753430910338</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.6019015724832518</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="n">
+        <v>1.743645143332305</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1.591054923587497</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.2724090344160601</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.06599668661659321</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.09211837340557319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-3.055096309652905</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-2.538518047590418</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-1.960323956555712</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.482323741360396</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.924831823668669</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>2.843625861602329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.08900863773867582</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.02127627029362014</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.02988310655417936</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.7378831588478727</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.6162677912927812</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.501388900882061</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>3.042370098018039</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>1.825627167778677</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>1.27387406655137</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1189,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
